--- a/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/rptBaoCaoKeHoachVonNamDuocDuyetDieuChinh.xlsx
+++ b/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/rptBaoCaoKeHoachVonNamDuocDuyetDieuChinh.xlsx
@@ -615,24 +615,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -646,6 +628,24 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -929,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScale="55" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="AD16" sqref="AD16"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScale="40" zoomScaleNormal="100" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,54 +984,54 @@
       <c r="U1" s="1"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="30" t="s">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
       <c r="T2" s="12"/>
       <c r="U2" s="12"/>
     </row>
     <row r="3" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
       <c r="T3" s="14"/>
       <c r="U3" s="14"/>
     </row>
@@ -1069,144 +1069,144 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="32" t="s">
+      <c r="K5" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="32"/>
-      <c r="U5" s="32"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
     </row>
     <row r="6" spans="1:23" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="28" t="s">
+      <c r="I6" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="J6" s="28" t="s">
+      <c r="J6" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28" t="s">
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="N6" s="28" t="s">
+      <c r="N6" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="O6" s="28" t="s">
+      <c r="O6" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28" t="s">
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="R6" s="28" t="s">
+      <c r="R6" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28" t="s">
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37" t="s">
         <v>40</v>
       </c>
       <c r="V6" s="27"/>
       <c r="W6" s="24"/>
     </row>
     <row r="7" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28" t="s">
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="28" t="s">
+      <c r="K7" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28" t="s">
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="S7" s="28" t="s">
+      <c r="S7" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
       <c r="V7" s="27"/>
       <c r="W7" s="24"/>
     </row>
     <row r="8" spans="1:23" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
       <c r="K8" s="21" t="s">
         <v>55</v>
       </c>
       <c r="L8" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
       <c r="O8" s="19" t="s">
         <v>55</v>
       </c>
       <c r="P8" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
       <c r="S8" s="19" t="s">
         <v>70</v>
       </c>
       <c r="T8" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="U8" s="28"/>
+      <c r="U8" s="37"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
@@ -1339,339 +1339,333 @@
       </c>
     </row>
     <row r="11" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="39"/>
-      <c r="U11" s="39"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
     </row>
     <row r="12" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33" t="s">
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33" t="s">
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="33"/>
-      <c r="U12" s="33"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
     </row>
     <row r="13" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33" t="s">
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33" t="s">
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="33"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="35"/>
     </row>
     <row r="14" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="35"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
     </row>
     <row r="15" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33" t="s">
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33" t="s">
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="33"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
     </row>
     <row r="16" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="35"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="35"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
     </row>
     <row r="17" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="36"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="30"/>
     </row>
     <row r="18" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="33" t="s">
+      <c r="A18" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="33" t="s">
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="33"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
       <c r="U18" s="35"/>
     </row>
     <row r="19" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
-      <c r="B19" s="33" t="s">
+      <c r="A19" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="33" t="s">
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="33"/>
-      <c r="U19" s="36"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35"/>
     </row>
     <row r="20" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
     </row>
     <row r="21" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
-      <c r="B21" s="33" t="s">
+      <c r="A21" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="33" t="s">
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="36"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="35"/>
     </row>
     <row r="22" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
     </row>
     <row r="23" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="34"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="P12:U12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="P13:U13"/>
-    <mergeCell ref="P18:T18"/>
-    <mergeCell ref="P19:T19"/>
-    <mergeCell ref="P21:T21"/>
-    <mergeCell ref="P15:U15"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="U6:U8"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="M6:M8"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A6:A8"/>
@@ -1688,15 +1682,21 @@
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="E6:E8"/>
     <mergeCell ref="K5:U5"/>
-    <mergeCell ref="U6:U8"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="P15:U15"/>
+    <mergeCell ref="P18:U18"/>
+    <mergeCell ref="P19:U19"/>
+    <mergeCell ref="P21:U21"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="P12:U12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="P13:U13"/>
   </mergeCells>
   <pageMargins left="0.1" right="0.1" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
